--- a/TestData/DataTest.xlsx
+++ b/TestData/DataTest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\AutomationTestProject_Batch22\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9121963E-D46F-43B7-84BB-6BB804D85A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525CE10B-1118-46B0-991C-900653A16E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePageTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Test@gmail.com</t>
   </si>
   <si>
     <t>TestBug</t>
+  </si>
+  <si>
+    <t>12345678</t>
   </si>
 </sst>
 </file>
@@ -75,9 +79,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,21 +364,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>
@@ -382,4 +396,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEBB82-4D71-4CF9-A106-981510C199D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/DataTest.xlsx
+++ b/TestData/DataTest.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\AutomationTestProject_Batch22\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525CE10B-1118-46B0-991C-900653A16E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EFDC23-9CCF-4E0D-BCD6-458088AF60A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="HomePageTest" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="HomePageTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Test@gmail.com</t>
   </si>
@@ -35,13 +36,54 @@
   </si>
   <si>
     <t>12345678</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>TC_Name</t>
+  </si>
+  <si>
+    <t>TC_Step</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>TC_Login_001</t>
+  </si>
+  <si>
+    <t>Verify Login Functionality</t>
+  </si>
+  <si>
+    <t>2.Enter Valid Email Id</t>
+  </si>
+  <si>
+    <t>3.Enter Valid Password</t>
+  </si>
+  <si>
+    <t>4.Click on Login Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.Verify title of HomePage </t>
+  </si>
+  <si>
+    <t>Expected Title of HomePage
+ "FaceBook Homepage"</t>
+  </si>
+  <si>
+    <t>1. Launch Chrome Browser with 
+Url https://www.facebook.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +99,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,15 +137,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -366,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -399,6 +489,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C53994A-C072-48D4-A830-E939BD39746F}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEBB82-4D71-4CF9-A106-981510C199D7}">
   <dimension ref="A1"/>
   <sheetViews>
